--- a/Design Info/EDI_Generation_App_Design.xlsx
+++ b/Design Info/EDI_Generation_App_Design.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7fad4b895abcf9a/Documents/GitHub/GenerateEDI/Design Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basso\OneDrive\Documents\GitHub\GenerateEDI\Design Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="6_{E6C0922C-86C9-436D-9C18-985ABC0E7103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{61AA6A21-A502-4585-9D44-C87DDEDAA622}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="6_{E6C0922C-86C9-436D-9C18-985ABC0E7103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4788E573-76F0-406E-B878-71992E7B1C79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="9" activeTab="10" xr2:uid="{C5832D68-1DE2-4CA9-A904-0FFF565582C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C5832D68-1DE2-4CA9-A904-0FFF565582C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions Screen" sheetId="1" r:id="rId1"/>
+    <sheet name="Home Screen" sheetId="1" r:id="rId1"/>
     <sheet name="EDI Selection Screen" sheetId="2" r:id="rId2"/>
     <sheet name="Facility Info Screen" sheetId="3" r:id="rId3"/>
     <sheet name="Billing Provider Screen" sheetId="4" r:id="rId4"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="171">
   <si>
     <t>Values Needed</t>
   </si>
@@ -143,21 +143,7 @@
     <t>Screen will be used to explain functionality of app</t>
   </si>
   <si>
-    <t>Next button will bring user to the next screen</t>
-  </si>
-  <si>
-    <t>Cancel button will allow the user to exit the app</t>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>1. Do we need cancel in the web app?
-2. If we use cancel, should we add a home screen? 
-3. Should we make this the home screen and allow user to use this screen to set preferences or start EDI generation?</t>
-  </si>
-  <si>
-    <t>If using this screen as Home screen, maybe we should just allow them to choose buttons for "Preferences" and "EDI generation". This way they can either go into preferences or right to generating the EDI file</t>
   </si>
   <si>
     <t>Selection of what EDI file is being generated</t>
@@ -616,6 +602,24 @@
   </si>
   <si>
     <t>Grid that displays the information the user entered per screen group</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>EDI Generator</t>
+  </si>
+  <si>
+    <t>Preferences button will bring user to the Preferences screen</t>
+  </si>
+  <si>
+    <t>EDI Generator button will allow the user to move through the subsequent screens to generate the EDI file</t>
+  </si>
+  <si>
+    <t>This button will be used to start the EDI generation process.</t>
+  </si>
+  <si>
+    <t>This button will be used to navigate to the screen that will be used to store the users preferences locally. Once the user clears their cache, this information will no longer be saved and they will need to reset their preferences</t>
   </si>
 </sst>
 </file>
@@ -755,9 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,19 +768,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,13 +801,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,14 +1117,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D78CD14-3E2B-4FC4-885A-2C9D975E4DF2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -1137,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -1155,27 +1159,27 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1211,86 +1215,86 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="231" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A2F9E-FC96-492A-8927-B59880FECAC0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1324,40 +1328,40 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1393,55 +1397,55 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1476,58 +1480,58 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1535,7 +1539,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1565,75 +1569,75 @@
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="19"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1659,327 +1663,327 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
-        <v>90</v>
+      <c r="A19" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="15" t="s">
-        <v>91</v>
+      <c r="A20" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2012,62 +2016,62 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>57</v>
+      <c r="A2" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -2097,132 +2101,132 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
@@ -2290,74 +2294,74 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>67</v>
+      <c r="A2" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -2387,28 +2391,28 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2416,25 +2420,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2442,25 +2446,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2468,25 +2472,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2494,103 +2498,103 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>52</v>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>52</v>
+      <c r="B16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>52</v>
+      <c r="A17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2628,68 +2632,68 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>68</v>
+      <c r="A2" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -2719,132 +2723,132 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2882,50 +2886,50 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>75</v>
+      <c r="A2" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -2955,28 +2959,28 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2984,51 +2988,51 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3036,25 +3040,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3062,77 +3066,77 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>48</v>
+      <c r="A12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>48</v>
+      <c r="A13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3170,62 +3174,62 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>89</v>
+      <c r="A2" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -3258,25 +3262,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3284,51 +3288,51 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3336,103 +3340,103 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>48</v>
+      <c r="A13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>48</v>
+      <c r="A14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3470,50 +3474,50 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>103</v>
+      <c r="A2" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3546,25 +3550,25 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3572,25 +3576,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3598,25 +3602,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3624,363 +3628,363 @@
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>52</v>
+      <c r="A23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4019,62 +4023,62 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>107</v>
+      <c r="A2" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -4107,25 +4111,25 @@
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -4133,77 +4137,77 @@
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -4211,181 +4215,181 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
